--- a/30D_values.xlsx
+++ b/30D_values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milanjanovic/Documents/GitHub/AK9EV_Zapocet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FEE13EE-0D51-FE44-87DE-7C0AF07FBA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96875018-1747-D247-91E7-CEA4903BFC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{12B78773-43B7-0242-83DC-7D1D03B25E6E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{12B78773-43B7-0242-83DC-7D1D03B25E6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="112">
   <si>
     <t>16.98202507175878</t>
   </si>
@@ -269,21 +269,6 @@
     <t>0.002263579591667563</t>
   </si>
   <si>
-    <t>5618.694548816125</t>
-  </si>
-  <si>
-    <t>372661.0846600588</t>
-  </si>
-  <si>
-    <t>1.1117815028687437e-32</t>
-  </si>
-  <si>
-    <t>2.8138009996618484e-40</t>
-  </si>
-  <si>
-    <t>2.324820937223135e-112</t>
-  </si>
-  <si>
     <t>17.591408090142448</t>
   </si>
   <si>
@@ -314,21 +299,6 @@
     <t>-0.029342795292674154</t>
   </si>
   <si>
-    <t>2.81901063340203</t>
-  </si>
-  <si>
-    <t>4.207835546903403</t>
-  </si>
-  <si>
-    <t>1.183267557988031e-11</t>
-  </si>
-  <si>
-    <t>4.390858047521653e-13</t>
-  </si>
-  <si>
-    <t>8.29632658867695e-14</t>
-  </si>
-  <si>
     <t>-6.153619167923483</t>
   </si>
   <si>
@@ -357,6 +327,51 @@
   </si>
   <si>
     <t>-0.9999999999999988</t>
+  </si>
+  <si>
+    <t>8984.824996908215</t>
+  </si>
+  <si>
+    <t>173282.6452646944</t>
+  </si>
+  <si>
+    <t>428.82442286175404</t>
+  </si>
+  <si>
+    <t>15139.384629004588</t>
+  </si>
+  <si>
+    <t>1037.5463676988109</t>
+  </si>
+  <si>
+    <t>20.91518126671447</t>
+  </si>
+  <si>
+    <t>20.251415027705345</t>
+  </si>
+  <si>
+    <t>18.141908276339727</t>
+  </si>
+  <si>
+    <t>20.861262671114034</t>
+  </si>
+  <si>
+    <t>18.762232085279503</t>
+  </si>
+  <si>
+    <t>-7.7416670858774195</t>
+  </si>
+  <si>
+    <t>-18.038170483748498</t>
+  </si>
+  <si>
+    <t>-14.085400524587198</t>
+  </si>
+  <si>
+    <t>-7.819131323856326</t>
+  </si>
+  <si>
+    <t>-11.252873440378412</t>
   </si>
 </sst>
 </file>
@@ -400,7 +415,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,7 +733,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,19 +968,19 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1055,104 +1070,104 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/30D_values.xlsx
+++ b/30D_values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milanjanovic/Documents/GitHub/AK9EV_Zapocet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96875018-1747-D247-91E7-CEA4903BFC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2405372E-5062-634C-8217-A7C1E5C6E718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{12B78773-43B7-0242-83DC-7D1D03B25E6E}"/>
   </bookViews>
@@ -36,112 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="112">
-  <si>
-    <t>16.98202507175878</t>
-  </si>
-  <si>
-    <t>70.16858609044883</t>
-  </si>
-  <si>
-    <t>7.759389459624842e-11</t>
-  </si>
-  <si>
-    <t>2.199588076037116e-15</t>
-  </si>
-  <si>
-    <t>1.1063162174937592e-40</t>
-  </si>
-  <si>
-    <t>31.421965732366093</t>
-  </si>
-  <si>
-    <t>136.36940239447475</t>
-  </si>
-  <si>
-    <t>1.7946434688010205e-11</t>
-  </si>
-  <si>
-    <t>1.817992182381798e-14</t>
-  </si>
-  <si>
-    <t>1.0100484916693349e-33</t>
-  </si>
-  <si>
-    <t>273.9459909698498</t>
-  </si>
-  <si>
-    <t>4940.733796817063</t>
-  </si>
-  <si>
-    <t>5.2334145256027935e-22</t>
-  </si>
-  <si>
-    <t>1.1456285989412877e-26</t>
-  </si>
-  <si>
-    <t>1.3902149616377887e-65</t>
-  </si>
-  <si>
-    <t>-0.9999999987107396</t>
-  </si>
-  <si>
-    <t>-0.9999999968641663</t>
-  </si>
-  <si>
-    <t>-1.0</t>
-  </si>
-  <si>
-    <t>-0.9999999999952405</t>
-  </si>
-  <si>
-    <t>-0.9999999999999977</t>
-  </si>
-  <si>
-    <t>-0.9999999970935932</t>
-  </si>
-  <si>
-    <t>-0.9999999973696301</t>
-  </si>
-  <si>
-    <t>-0.9999999999999999</t>
-  </si>
-  <si>
-    <t>-0.9999999999959465</t>
-  </si>
-  <si>
-    <t>-0.9999999999999978</t>
-  </si>
-  <si>
-    <t>1667419.5201906406</t>
-  </si>
-  <si>
-    <t>1.2316946470472654e+27</t>
-  </si>
-  <si>
-    <t>1.0000000000051743</t>
-  </si>
-  <si>
-    <t>1.0000000000002003</t>
-  </si>
-  <si>
-    <t>1.000000000000051</t>
-  </si>
-  <si>
-    <t>4.587732225991599e-135</t>
-  </si>
-  <si>
-    <t>1.9790048604609212e-148</t>
-  </si>
-  <si>
-    <t>9.49686724557625e-126</t>
-  </si>
-  <si>
-    <t>1.315469821107853e-165</t>
-  </si>
-  <si>
-    <t>1.3154698211082507e-165</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
   <si>
     <t>1.0</t>
   </si>
@@ -194,36 +89,6 @@
     <t>-0.9999999586088468</t>
   </si>
   <si>
-    <t>326.7153123147772</t>
-  </si>
-  <si>
-    <t>6232.087927036035</t>
-  </si>
-  <si>
-    <t>1.0000000000000002</t>
-  </si>
-  <si>
-    <t>1.00000000000011</t>
-  </si>
-  <si>
-    <t>1.0000000000000082</t>
-  </si>
-  <si>
-    <t>-219015.42555108634</t>
-  </si>
-  <si>
-    <t>-248235.2988536982</t>
-  </si>
-  <si>
-    <t>-230139.6609568509</t>
-  </si>
-  <si>
-    <t>-299998.9999999983</t>
-  </si>
-  <si>
-    <t>-299998.9999996937</t>
-  </si>
-  <si>
     <t>3.9581557984026605</t>
   </si>
   <si>
@@ -372,6 +237,156 @@
   </si>
   <si>
     <t>-11.252873440378412</t>
+  </si>
+  <si>
+    <t>100.60351595169934</t>
+  </si>
+  <si>
+    <t>102.14260620442913</t>
+  </si>
+  <si>
+    <t>6.198468328403211</t>
+  </si>
+  <si>
+    <t>136.30052724082003</t>
+  </si>
+  <si>
+    <t>26.06016523583408</t>
+  </si>
+  <si>
+    <t>1.0710223845459537</t>
+  </si>
+  <si>
+    <t>2.2546358001145914</t>
+  </si>
+  <si>
+    <t>0.010995968047632905</t>
+  </si>
+  <si>
+    <t>0.07686091661226051</t>
+  </si>
+  <si>
+    <t>0.008245096144436848</t>
+  </si>
+  <si>
+    <t>984.7884985079821</t>
+  </si>
+  <si>
+    <t>1737.1630289076818</t>
+  </si>
+  <si>
+    <t>64.07778970717332</t>
+  </si>
+  <si>
+    <t>2181.696925199133</t>
+  </si>
+  <si>
+    <t>63.654699357652184</t>
+  </si>
+  <si>
+    <t>-1393.4435139707673</t>
+  </si>
+  <si>
+    <t>-2063.7872491995995</t>
+  </si>
+  <si>
+    <t>-2043.5958308071545</t>
+  </si>
+  <si>
+    <t>-2150.854119044336</t>
+  </si>
+  <si>
+    <t>-1617.5949329424195</t>
+  </si>
+  <si>
+    <t>4154680.3376139654</t>
+  </si>
+  <si>
+    <t>310572316.36383325</t>
+  </si>
+  <si>
+    <t>51.4692283885518</t>
+  </si>
+  <si>
+    <t>34470.290793373584</t>
+  </si>
+  <si>
+    <t>38.82610789940819</t>
+  </si>
+  <si>
+    <t>46346.469752370685</t>
+  </si>
+  <si>
+    <t>12.437377508369304</t>
+  </si>
+  <si>
+    <t>254.3965458391769</t>
+  </si>
+  <si>
+    <t>10.701316144738575</t>
+  </si>
+  <si>
+    <t>2544.0785366615473</t>
+  </si>
+  <si>
+    <t>3.6704183128172305</t>
+  </si>
+  <si>
+    <t>4.136540012517814</t>
+  </si>
+  <si>
+    <t>0.4065400158531448</t>
+  </si>
+  <si>
+    <t>9.865781407943404</t>
+  </si>
+  <si>
+    <t>1.5665397208456255</t>
+  </si>
+  <si>
+    <t>12.330061772803079</t>
+  </si>
+  <si>
+    <t>10.32952543019139</t>
+  </si>
+  <si>
+    <t>9.104239817302151</t>
+  </si>
+  <si>
+    <t>11.018995952407343</t>
+  </si>
+  <si>
+    <t>9.176837973681687</t>
+  </si>
+  <si>
+    <t>10994.53508334578</t>
+  </si>
+  <si>
+    <t>11203.399306618961</t>
+  </si>
+  <si>
+    <t>11321.644905422485</t>
+  </si>
+  <si>
+    <t>11058.188469345123</t>
+  </si>
+  <si>
+    <t>11461.055515913069</t>
+  </si>
+  <si>
+    <t>1897070.1822955066</t>
+  </si>
+  <si>
+    <t>187190152.0664467</t>
+  </si>
+  <si>
+    <t>0.666666666666692</t>
+  </si>
+  <si>
+    <t>5666.565412730209</t>
+  </si>
+  <si>
+    <t>0.7620056364031144</t>
   </si>
 </sst>
 </file>
@@ -733,7 +748,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -747,427 +762,427 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
